--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ062.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ062.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44B9B78-65CE-46A6-A2B7-32E39D32D9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A9DDE-01C7-4905-A1E1-3E4873851F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>JcicZ062</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -521,6 +517,11 @@
   <si>
     <t>custRcEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1091,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1111,10 +1112,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1139,10 +1140,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1179,7 +1180,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -1192,7 +1193,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
@@ -1205,7 +1206,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1235,7 +1236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -1253,7 +1254,7 @@
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1261,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>17</v>
@@ -1283,17 +1284,17 @@
         <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="15">
         <v>3</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1301,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>22</v>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1322,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>25</v>
@@ -1341,13 +1342,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="15">
         <v>3</v>
@@ -1360,13 +1361,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="15">
         <v>3</v>
@@ -1379,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="15">
         <v>5</v>
@@ -1394,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1402,13 +1403,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="15">
         <v>9</v>
@@ -1421,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="15">
         <v>9</v>
@@ -1440,13 +1441,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="15">
         <v>9</v>
@@ -1459,13 +1460,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="15">
         <v>10</v>
@@ -1478,10 +1479,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>22</v>
@@ -1490,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -1499,10 +1500,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>22</v>
@@ -1511,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="14"/>
     </row>
@@ -1520,10 +1521,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>22</v>
@@ -1532,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="14"/>
     </row>
@@ -1541,10 +1542,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>22</v>
@@ -1553,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="14"/>
     </row>
@@ -1562,22 +1563,22 @@
         <v>17</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="D26" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="15">
         <v>20</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1585,22 +1586,22 @@
         <v>18</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="D27" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="15">
         <v>76</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1608,13 +1609,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="15">
         <v>9</v>
@@ -1627,20 +1628,20 @@
         <v>20</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="D29" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="15">
         <v>1</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1648,13 +1649,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="15">
         <v>3</v>
@@ -1667,13 +1668,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="15">
         <v>5</v>
@@ -1682,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1690,13 +1691,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="15">
         <v>9</v>
@@ -1709,13 +1710,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="15">
         <v>8</v>
@@ -1728,10 +1729,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>20</v>
@@ -1750,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>30</v>
@@ -1766,13 +1767,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="D36" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="15">
         <v>6</v>
@@ -1788,10 +1789,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="E37" s="15">
         <v>8</v>
@@ -2215,65 +2216,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
